--- a/Code/Results/Cases/Case_6_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025120756331857</v>
+        <v>1.012080231800318</v>
       </c>
       <c r="D2">
-        <v>1.041917612334627</v>
+        <v>1.032057418382636</v>
       </c>
       <c r="E2">
-        <v>1.037648809601877</v>
+        <v>1.026865045426396</v>
       </c>
       <c r="F2">
-        <v>1.048195349627192</v>
+        <v>1.037829112804191</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053178038221229</v>
+        <v>1.049178051239739</v>
       </c>
       <c r="J2">
-        <v>1.04657521935752</v>
+        <v>1.033905532428581</v>
       </c>
       <c r="K2">
-        <v>1.052822296346701</v>
+        <v>1.043087502462168</v>
       </c>
       <c r="L2">
-        <v>1.048607418142508</v>
+        <v>1.037962377150338</v>
       </c>
       <c r="M2">
-        <v>1.05902172543301</v>
+        <v>1.048785432509161</v>
       </c>
       <c r="N2">
-        <v>1.048061476212863</v>
+        <v>1.035373796875263</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031620602338698</v>
+        <v>1.016596598570836</v>
       </c>
       <c r="D3">
-        <v>1.046927908728398</v>
+        <v>1.035437806206753</v>
       </c>
       <c r="E3">
-        <v>1.043084599020518</v>
+        <v>1.030546742020366</v>
       </c>
       <c r="F3">
-        <v>1.053710646816815</v>
+        <v>1.041646858732649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054990412051081</v>
+        <v>1.050235073851821</v>
       </c>
       <c r="J3">
-        <v>1.051284864257262</v>
+        <v>1.036644826150993</v>
       </c>
       <c r="K3">
-        <v>1.056993585134981</v>
+        <v>1.045636476172842</v>
       </c>
       <c r="L3">
-        <v>1.053194357490592</v>
+        <v>1.040803139009244</v>
       </c>
       <c r="M3">
-        <v>1.063699492889781</v>
+        <v>1.051773211107862</v>
       </c>
       <c r="N3">
-        <v>1.052777809348567</v>
+        <v>1.038116980708952</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035720118763581</v>
+        <v>1.019462579907323</v>
       </c>
       <c r="D4">
-        <v>1.05009004487258</v>
+        <v>1.037585096752832</v>
       </c>
       <c r="E4">
-        <v>1.046518517315653</v>
+        <v>1.032888647065007</v>
       </c>
       <c r="F4">
-        <v>1.057194199080947</v>
+        <v>1.044074230752866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056122138517636</v>
+        <v>1.05089579094783</v>
       </c>
       <c r="J4">
-        <v>1.054252225365154</v>
+        <v>1.03838120176137</v>
       </c>
       <c r="K4">
-        <v>1.059619298374848</v>
+        <v>1.047250116183675</v>
       </c>
       <c r="L4">
-        <v>1.056086140976445</v>
+        <v>1.042605700192053</v>
       </c>
       <c r="M4">
-        <v>1.06664807270778</v>
+        <v>1.053668299821689</v>
       </c>
       <c r="N4">
-        <v>1.055749384449593</v>
+        <v>1.039855822171859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.037419323035983</v>
+        <v>1.020654403424972</v>
       </c>
       <c r="D5">
-        <v>1.051401130408009</v>
+        <v>1.038478517507036</v>
       </c>
       <c r="E5">
-        <v>1.047943086957081</v>
+        <v>1.033863827366886</v>
       </c>
       <c r="F5">
-        <v>1.058639210259515</v>
+        <v>1.045084739442795</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056588447966323</v>
+        <v>1.051168101028729</v>
       </c>
       <c r="J5">
-        <v>1.055481374264891</v>
+        <v>1.039102781722149</v>
       </c>
       <c r="K5">
-        <v>1.060706320245164</v>
+        <v>1.047920174241503</v>
       </c>
       <c r="L5">
-        <v>1.057284391727691</v>
+        <v>1.043355230319861</v>
       </c>
       <c r="M5">
-        <v>1.067869738514795</v>
+        <v>1.054456116698645</v>
       </c>
       <c r="N5">
-        <v>1.056980278881753</v>
+        <v>1.040578426858949</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037703239833945</v>
+        <v>1.02085376469642</v>
       </c>
       <c r="D6">
-        <v>1.051620219142272</v>
+        <v>1.038627989518402</v>
       </c>
       <c r="E6">
-        <v>1.048181186906639</v>
+        <v>1.034027024650926</v>
       </c>
       <c r="F6">
-        <v>1.058880717800058</v>
+        <v>1.045253833571232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056666197804715</v>
+        <v>1.051213506283163</v>
       </c>
       <c r="J6">
-        <v>1.055686702416283</v>
+        <v>1.03922345330199</v>
       </c>
       <c r="K6">
-        <v>1.060887869834403</v>
+        <v>1.048032198883581</v>
       </c>
       <c r="L6">
-        <v>1.057484582125959</v>
+        <v>1.043480602208238</v>
       </c>
       <c r="M6">
-        <v>1.068073833608459</v>
+        <v>1.054587881537716</v>
       </c>
       <c r="N6">
-        <v>1.057185898622672</v>
+        <v>1.040699269806275</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035742917278772</v>
+        <v>1.019478555724241</v>
       </c>
       <c r="D7">
-        <v>1.050107634402663</v>
+        <v>1.037597070856711</v>
       </c>
       <c r="E7">
-        <v>1.046537626169121</v>
+        <v>1.032901713829449</v>
       </c>
       <c r="F7">
-        <v>1.057213582731405</v>
+        <v>1.044087771926054</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056128406129044</v>
+        <v>1.050899450861993</v>
       </c>
       <c r="J7">
-        <v>1.054268720260297</v>
+        <v>1.038390876191623</v>
       </c>
       <c r="K7">
-        <v>1.059633888392145</v>
+        <v>1.047259101906116</v>
       </c>
       <c r="L7">
-        <v>1.056102219622905</v>
+        <v>1.042615747600674</v>
       </c>
       <c r="M7">
-        <v>1.066664466029251</v>
+        <v>1.053678861209302</v>
       </c>
       <c r="N7">
-        <v>1.055765902769379</v>
+        <v>1.039865510340914</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027340185892965</v>
+        <v>1.013618529151193</v>
       </c>
       <c r="D8">
-        <v>1.043627926591352</v>
+        <v>1.033208305166844</v>
       </c>
       <c r="E8">
-        <v>1.03950370073799</v>
+        <v>1.028117851128326</v>
       </c>
       <c r="F8">
-        <v>1.050077491988709</v>
+        <v>1.03912843596702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053799244648331</v>
+        <v>1.049540158460359</v>
       </c>
       <c r="J8">
-        <v>1.048183977298683</v>
+        <v>1.03483892951626</v>
       </c>
       <c r="K8">
-        <v>1.054247661525968</v>
+        <v>1.043956480041746</v>
       </c>
       <c r="L8">
-        <v>1.050173890873586</v>
+        <v>1.038929955772868</v>
       </c>
       <c r="M8">
-        <v>1.060619309705131</v>
+        <v>1.049803241771814</v>
       </c>
       <c r="N8">
-        <v>1.049672518774829</v>
+        <v>1.036308519493858</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011659602457917</v>
+        <v>1.002838094370978</v>
       </c>
       <c r="D9">
-        <v>1.031557184938186</v>
+        <v>1.025154452764311</v>
       </c>
       <c r="E9">
-        <v>1.026425606985937</v>
+        <v>1.019363767979488</v>
       </c>
       <c r="F9">
-        <v>1.036805035460329</v>
+        <v>1.03004490863787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049364010052324</v>
+        <v>1.046961637884546</v>
       </c>
       <c r="J9">
-        <v>1.036807243470679</v>
+        <v>1.028291028741434</v>
       </c>
       <c r="K9">
-        <v>1.044158207112748</v>
+        <v>1.037852186171755</v>
       </c>
       <c r="L9">
-        <v>1.039104017684506</v>
+        <v>1.032150303748206</v>
       </c>
       <c r="M9">
-        <v>1.049327922451587</v>
+        <v>1.04266863519392</v>
       </c>
       <c r="N9">
-        <v>1.03827962867986</v>
+        <v>1.029751319948877</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000526592793589</v>
+        <v>0.9953125901005873</v>
       </c>
       <c r="D10">
-        <v>1.02300830308402</v>
+        <v>1.019549786987407</v>
       </c>
       <c r="E10">
-        <v>1.017178888318606</v>
+        <v>1.013287630453249</v>
       </c>
       <c r="F10">
-        <v>1.027418431513682</v>
+        <v>1.023734671626747</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04615867268488</v>
+        <v>1.045111635290065</v>
       </c>
       <c r="J10">
-        <v>1.028719333439416</v>
+        <v>1.02371342573906</v>
       </c>
       <c r="K10">
-        <v>1.036974200932994</v>
+        <v>1.033574812988683</v>
       </c>
       <c r="L10">
-        <v>1.031244748610654</v>
+        <v>1.027421046729324</v>
       </c>
       <c r="M10">
-        <v>1.041309676793998</v>
+        <v>1.037688216732228</v>
       </c>
       <c r="N10">
-        <v>1.030180232888657</v>
+        <v>1.025167216225181</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9955214698969056</v>
+        <v>0.9919656759414025</v>
       </c>
       <c r="D11">
-        <v>1.019171648963402</v>
+        <v>1.017062238781062</v>
       </c>
       <c r="E11">
-        <v>1.013032410663882</v>
+        <v>1.010594358984995</v>
       </c>
       <c r="F11">
-        <v>1.023208772998273</v>
+        <v>1.020936394028619</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044705205611823</v>
+        <v>1.044277620711817</v>
       </c>
       <c r="J11">
-        <v>1.025081755149859</v>
+        <v>1.021676554419281</v>
       </c>
       <c r="K11">
-        <v>1.033740851589598</v>
+        <v>1.031669403301382</v>
       </c>
       <c r="L11">
-        <v>1.027712669817774</v>
+        <v>1.025319209131081</v>
       </c>
       <c r="M11">
-        <v>1.037705888074608</v>
+        <v>1.035473994001882</v>
       </c>
       <c r="N11">
-        <v>1.026537488820693</v>
+        <v>1.023127452314495</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9936323977019799</v>
+        <v>0.9907084801542557</v>
       </c>
       <c r="D12">
-        <v>1.017724754453825</v>
+        <v>1.016128693289187</v>
       </c>
       <c r="E12">
-        <v>1.011469147160911</v>
+        <v>1.009584119681859</v>
       </c>
       <c r="F12">
-        <v>1.021621634135791</v>
+        <v>1.019886585185502</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044154848557197</v>
+        <v>1.043962707965278</v>
       </c>
       <c r="J12">
-        <v>1.023708712294153</v>
+        <v>1.020911346658668</v>
       </c>
       <c r="K12">
-        <v>1.032520076263614</v>
+        <v>1.030953281825765</v>
       </c>
       <c r="L12">
-        <v>1.026379866408252</v>
+        <v>1.024529978077662</v>
       </c>
       <c r="M12">
-        <v>1.036345999148298</v>
+        <v>1.03464245590265</v>
       </c>
       <c r="N12">
-        <v>1.025162496086641</v>
+        <v>1.022361157871092</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9940390037485121</v>
+        <v>0.9909787989091373</v>
       </c>
       <c r="D13">
-        <v>1.018036130397765</v>
+        <v>1.016329381944051</v>
       </c>
       <c r="E13">
-        <v>1.011805545232416</v>
+        <v>1.00980127276375</v>
       </c>
       <c r="F13">
-        <v>1.021963172233043</v>
+        <v>1.020112251976218</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044273386825237</v>
+        <v>1.044030492515071</v>
       </c>
       <c r="J13">
-        <v>1.024004251335348</v>
+        <v>1.021075883233305</v>
       </c>
       <c r="K13">
-        <v>1.032782854222346</v>
+        <v>1.031107277049695</v>
       </c>
       <c r="L13">
-        <v>1.026666725016032</v>
+        <v>1.024699662789855</v>
       </c>
       <c r="M13">
-        <v>1.036638688321887</v>
+        <v>1.034821241340319</v>
       </c>
       <c r="N13">
-        <v>1.025458454827174</v>
+        <v>1.022525928106537</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9953659432731281</v>
+        <v>0.9918620458185652</v>
       </c>
       <c r="D14">
-        <v>1.019052502065713</v>
+        <v>1.016985269278385</v>
       </c>
       <c r="E14">
-        <v>1.012903671760546</v>
+        <v>1.010511055897229</v>
       </c>
       <c r="F14">
-        <v>1.023078068947719</v>
+        <v>1.020849831760764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044659930473456</v>
+        <v>1.044251695460447</v>
       </c>
       <c r="J14">
-        <v>1.024968714867782</v>
+        <v>1.021613480416274</v>
       </c>
       <c r="K14">
-        <v>1.033640353385418</v>
+        <v>1.031610381353535</v>
       </c>
       <c r="L14">
-        <v>1.027602933803713</v>
+        <v>1.025254147132772</v>
       </c>
       <c r="M14">
-        <v>1.03759392243568</v>
+        <v>1.035405446459</v>
       </c>
       <c r="N14">
-        <v>1.026424288008449</v>
+        <v>1.023064288739169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9961794753991954</v>
+        <v>0.9924043650876829</v>
       </c>
       <c r="D15">
-        <v>1.019675786688341</v>
+        <v>1.017388102732178</v>
       </c>
       <c r="E15">
-        <v>1.013577153408561</v>
+        <v>1.010947058031278</v>
       </c>
       <c r="F15">
-        <v>1.023761828836244</v>
+        <v>1.021302884802091</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044896684865958</v>
+        <v>1.044387301763526</v>
       </c>
       <c r="J15">
-        <v>1.025560004222034</v>
+        <v>1.021943556759605</v>
       </c>
       <c r="K15">
-        <v>1.034166025303003</v>
+        <v>1.03191924049013</v>
       </c>
       <c r="L15">
-        <v>1.028176956336792</v>
+        <v>1.025594642624694</v>
       </c>
       <c r="M15">
-        <v>1.038179607014038</v>
+        <v>1.035764178887082</v>
       </c>
       <c r="N15">
-        <v>1.027016417061406</v>
+        <v>1.023394833828768</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000854694661358</v>
+        <v>0.9955327914573533</v>
       </c>
       <c r="D16">
-        <v>1.023259960222496</v>
+        <v>1.019713561661066</v>
       </c>
       <c r="E16">
-        <v>1.017450934804109</v>
+        <v>1.013465021580583</v>
       </c>
       <c r="F16">
-        <v>1.027694614857972</v>
+        <v>1.023918953405964</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04625370154492</v>
+        <v>1.045166277417481</v>
       </c>
       <c r="J16">
-        <v>1.028957766277159</v>
+        <v>1.023847419417843</v>
       </c>
       <c r="K16">
-        <v>1.037186092626682</v>
+        <v>1.033700115787281</v>
       </c>
       <c r="L16">
-        <v>1.031476322977671</v>
+        <v>1.027559366999437</v>
       </c>
       <c r="M16">
-        <v>1.041545948317188</v>
+        <v>1.037833917733312</v>
       </c>
       <c r="N16">
-        <v>1.030419004328378</v>
+        <v>1.025301400190357</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003736447239863</v>
+        <v>0.9974710221394631</v>
       </c>
       <c r="D17">
-        <v>1.025471068221111</v>
+        <v>1.021155709202285</v>
       </c>
       <c r="E17">
-        <v>1.019841564632078</v>
+        <v>1.015027471791267</v>
       </c>
       <c r="F17">
-        <v>1.030121547728648</v>
+        <v>1.025541955004394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047086952579883</v>
+        <v>1.045645968336909</v>
       </c>
       <c r="J17">
-        <v>1.031051792675823</v>
+        <v>1.025026733338893</v>
       </c>
       <c r="K17">
-        <v>1.039046765205304</v>
+        <v>1.034802698664998</v>
       </c>
       <c r="L17">
-        <v>1.033510418973769</v>
+        <v>1.02877704733352</v>
       </c>
       <c r="M17">
-        <v>1.043621274712512</v>
+        <v>1.039116487335432</v>
       </c>
       <c r="N17">
-        <v>1.032516004484717</v>
+        <v>1.026482388872444</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005399690299725</v>
+        <v>0.9985930897066716</v>
       </c>
       <c r="D18">
-        <v>1.026747861568691</v>
+        <v>1.021991064921365</v>
       </c>
       <c r="E18">
-        <v>1.021222341339368</v>
+        <v>1.015932849291231</v>
       </c>
       <c r="F18">
-        <v>1.031523248673251</v>
+        <v>1.02648230127153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047566696392795</v>
+        <v>1.045922596823847</v>
       </c>
       <c r="J18">
-        <v>1.032260244532143</v>
+        <v>1.025709353987845</v>
       </c>
       <c r="K18">
-        <v>1.040120329942458</v>
+        <v>1.035440701697735</v>
       </c>
       <c r="L18">
-        <v>1.034684535667902</v>
+        <v>1.029482113878141</v>
       </c>
       <c r="M18">
-        <v>1.044819164564436</v>
+        <v>1.039859053575876</v>
       </c>
       <c r="N18">
-        <v>1.033726172481283</v>
+        <v>1.027165978921015</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005963886146807</v>
+        <v>0.9989742706273785</v>
       </c>
       <c r="D19">
-        <v>1.027181069210576</v>
+        <v>1.022274924629136</v>
       </c>
       <c r="E19">
-        <v>1.021690884933978</v>
+        <v>1.016240560641114</v>
       </c>
       <c r="F19">
-        <v>1.031998884808062</v>
+        <v>1.026801877282123</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047729229937145</v>
+        <v>1.046016387832161</v>
       </c>
       <c r="J19">
-        <v>1.032670141436458</v>
+        <v>1.025941230646896</v>
       </c>
       <c r="K19">
-        <v>1.040484436006524</v>
+        <v>1.03565738730377</v>
       </c>
       <c r="L19">
-        <v>1.035082828364201</v>
+        <v>1.029721655365828</v>
       </c>
       <c r="M19">
-        <v>1.045225517023697</v>
+        <v>1.040111322767594</v>
       </c>
       <c r="N19">
-        <v>1.034136651486219</v>
+        <v>1.027398184871518</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003429101870819</v>
+        <v>0.9972639495238278</v>
       </c>
       <c r="D20">
-        <v>1.025235182928929</v>
+        <v>1.021001585978264</v>
       </c>
       <c r="E20">
-        <v>1.01958649465823</v>
+        <v>1.014860456912999</v>
       </c>
       <c r="F20">
-        <v>1.029862608820124</v>
+        <v>1.025368479852431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04699820627207</v>
+        <v>1.045594830837676</v>
       </c>
       <c r="J20">
-        <v>1.030828474374041</v>
+        <v>1.024900750281335</v>
       </c>
       <c r="K20">
-        <v>1.038848355619536</v>
+        <v>1.034684933563514</v>
       </c>
       <c r="L20">
-        <v>1.033293465857208</v>
+        <v>1.028646940931258</v>
       </c>
       <c r="M20">
-        <v>1.043399926619408</v>
+        <v>1.038979455157621</v>
       </c>
       <c r="N20">
-        <v>1.032292369045331</v>
+        <v>1.026356226904494</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9949760384757569</v>
+        <v>0.9916023443094221</v>
       </c>
       <c r="D21">
-        <v>1.018753820444051</v>
+        <v>1.016792394376738</v>
       </c>
       <c r="E21">
-        <v>1.012580952061957</v>
+        <v>1.010302318086143</v>
       </c>
       <c r="F21">
-        <v>1.022750422214002</v>
+        <v>1.020632924298315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044546397532473</v>
+        <v>1.044186699554265</v>
       </c>
       <c r="J21">
-        <v>1.024685321628399</v>
+        <v>1.021455412822548</v>
       </c>
       <c r="K21">
-        <v>1.033388398356041</v>
+        <v>1.031462463693672</v>
       </c>
       <c r="L21">
-        <v>1.027327831179524</v>
+        <v>1.025091103683299</v>
       </c>
       <c r="M21">
-        <v>1.037313229878569</v>
+        <v>1.035233666640795</v>
       </c>
       <c r="N21">
-        <v>1.02614049231816</v>
+        <v>1.022905996671329</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9894867116695805</v>
+        <v>0.9879612515564503</v>
       </c>
       <c r="D22">
-        <v>1.014551787514226</v>
+        <v>1.014090361597546</v>
       </c>
       <c r="E22">
-        <v>1.008041822693286</v>
+        <v>1.007379250661774</v>
       </c>
       <c r="F22">
-        <v>1.018141877445635</v>
+        <v>1.01759502548361</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042943884118086</v>
+        <v>1.043271620086303</v>
       </c>
       <c r="J22">
-        <v>1.020695380793949</v>
+        <v>1.019239084704362</v>
       </c>
       <c r="K22">
-        <v>1.029840379432501</v>
+        <v>1.029387759885411</v>
       </c>
       <c r="L22">
-        <v>1.02345563531486</v>
+        <v>1.022805926983541</v>
       </c>
       <c r="M22">
-        <v>1.033362308381381</v>
+        <v>1.03282579829476</v>
       </c>
       <c r="N22">
-        <v>1.022144885310073</v>
+        <v>1.020686521112999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9924140635695259</v>
+        <v>0.9898994394108579</v>
       </c>
       <c r="D23">
-        <v>1.016791946696919</v>
+        <v>1.015528180383237</v>
       </c>
       <c r="E23">
-        <v>1.010461445841762</v>
+        <v>1.008934414352313</v>
       </c>
       <c r="F23">
-        <v>1.020598528432242</v>
+        <v>1.019211381176988</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043799412985045</v>
+        <v>1.043759599699749</v>
       </c>
       <c r="J23">
-        <v>1.022823164330078</v>
+        <v>1.020418892118073</v>
       </c>
       <c r="K23">
-        <v>1.031732649871944</v>
+        <v>1.030492334729288</v>
       </c>
       <c r="L23">
-        <v>1.025520390927763</v>
+        <v>1.024022171846043</v>
       </c>
       <c r="M23">
-        <v>1.035469051561164</v>
+        <v>1.034107399344064</v>
       </c>
       <c r="N23">
-        <v>1.024275690542883</v>
+        <v>1.021868003988563</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003568032343936</v>
+        <v>0.9973575428456982</v>
       </c>
       <c r="D24">
-        <v>1.025341809117997</v>
+        <v>1.021071245596873</v>
       </c>
       <c r="E24">
-        <v>1.019701791820913</v>
+        <v>1.014935942171778</v>
       </c>
       <c r="F24">
-        <v>1.029979654961524</v>
+        <v>1.025446885310546</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047038326261046</v>
+        <v>1.045617947447195</v>
       </c>
       <c r="J24">
-        <v>1.030929422233664</v>
+        <v>1.024957692807262</v>
       </c>
       <c r="K24">
-        <v>1.03893804453352</v>
+        <v>1.034738162324085</v>
       </c>
       <c r="L24">
-        <v>1.033391535649524</v>
+        <v>1.028705746411099</v>
       </c>
       <c r="M24">
-        <v>1.04349998316356</v>
+        <v>1.039041391174994</v>
       </c>
       <c r="N24">
-        <v>1.032393460262493</v>
+        <v>1.026413250295339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01582588738269</v>
+        <v>1.005682213511506</v>
       </c>
       <c r="D25">
-        <v>1.034761232229132</v>
+        <v>1.027276517106953</v>
       </c>
       <c r="E25">
-        <v>1.029894266569876</v>
+        <v>1.02166752866785</v>
       </c>
       <c r="F25">
-        <v>1.040325707627709</v>
+        <v>1.032436322710684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05055237533238</v>
+        <v>1.04765073592097</v>
       </c>
       <c r="J25">
-        <v>1.039832138258186</v>
+        <v>1.030019850116105</v>
       </c>
       <c r="K25">
-        <v>1.046842868297499</v>
+        <v>1.039465658350852</v>
       </c>
       <c r="L25">
-        <v>1.042045583225001</v>
+        <v>1.033938544283962</v>
       </c>
       <c r="M25">
-        <v>1.052328685933708</v>
+        <v>1.044551140878034</v>
       </c>
       <c r="N25">
-        <v>1.041308819164926</v>
+        <v>1.031482596448198</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012080231800318</v>
+        <v>1.007234086604756</v>
       </c>
       <c r="D2">
-        <v>1.032057418382636</v>
+        <v>1.029075842215678</v>
       </c>
       <c r="E2">
-        <v>1.026865045426396</v>
+        <v>1.022916320651356</v>
       </c>
       <c r="F2">
-        <v>1.037829112804191</v>
+        <v>1.034296246846018</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049178051239739</v>
+        <v>1.047933229195869</v>
       </c>
       <c r="J2">
-        <v>1.033905532428581</v>
+        <v>1.029200559464279</v>
       </c>
       <c r="K2">
-        <v>1.043087502462168</v>
+        <v>1.040144437559684</v>
       </c>
       <c r="L2">
-        <v>1.037962377150338</v>
+        <v>1.034065366140275</v>
       </c>
       <c r="M2">
-        <v>1.048785432509161</v>
+        <v>1.045297595728202</v>
       </c>
       <c r="N2">
-        <v>1.035373796875263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013578376137226</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039455873516621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016596598570836</v>
+        <v>1.010817738585243</v>
       </c>
       <c r="D3">
-        <v>1.035437806206753</v>
+        <v>1.031479062384883</v>
       </c>
       <c r="E3">
-        <v>1.030546742020366</v>
+        <v>1.025752192444795</v>
       </c>
       <c r="F3">
-        <v>1.041646858732649</v>
+        <v>1.037214202010504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050235073851821</v>
+        <v>1.048557531894407</v>
       </c>
       <c r="J3">
-        <v>1.036644826150993</v>
+        <v>1.031017783199417</v>
       </c>
       <c r="K3">
-        <v>1.045636476172842</v>
+        <v>1.041724403299444</v>
       </c>
       <c r="L3">
-        <v>1.040803139009244</v>
+        <v>1.036065840215299</v>
       </c>
       <c r="M3">
-        <v>1.051773211107862</v>
+        <v>1.047392072708855</v>
       </c>
       <c r="N3">
-        <v>1.038116980708952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014194019351196</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040570382176046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +527,93 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019462579907323</v>
+        <v>1.013099833395019</v>
       </c>
       <c r="D4">
-        <v>1.037585096752832</v>
+        <v>1.033012964473612</v>
       </c>
       <c r="E4">
-        <v>1.032888647065007</v>
+        <v>1.027563841451634</v>
       </c>
       <c r="F4">
-        <v>1.044074230752866</v>
+        <v>1.03907749904998</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05089579094783</v>
+        <v>1.048946231811877</v>
       </c>
       <c r="J4">
-        <v>1.03838120176137</v>
+        <v>1.032174278060845</v>
       </c>
       <c r="K4">
-        <v>1.047250116183675</v>
+        <v>1.04272863274237</v>
       </c>
       <c r="L4">
-        <v>1.042605700192053</v>
+        <v>1.037340598813534</v>
       </c>
       <c r="M4">
-        <v>1.053668299821689</v>
+        <v>1.04872610459286</v>
       </c>
       <c r="N4">
-        <v>1.039855822171859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014585722039928</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041281350625787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020654403424972</v>
+        <v>1.014053530996712</v>
       </c>
       <c r="D5">
-        <v>1.038478517507036</v>
+        <v>1.033656665833105</v>
       </c>
       <c r="E5">
-        <v>1.033863827366886</v>
+        <v>1.028322780616782</v>
       </c>
       <c r="F5">
-        <v>1.045084739442795</v>
+        <v>1.03985819728712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051168101028729</v>
+        <v>1.04910780866632</v>
       </c>
       <c r="J5">
-        <v>1.039102781722149</v>
+        <v>1.032658725499529</v>
       </c>
       <c r="K5">
-        <v>1.047920174241503</v>
+        <v>1.043150314758982</v>
       </c>
       <c r="L5">
-        <v>1.043355230319861</v>
+        <v>1.037874640375071</v>
       </c>
       <c r="M5">
-        <v>1.054456116698645</v>
+        <v>1.049285086126488</v>
       </c>
       <c r="N5">
-        <v>1.040578426858949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014749997414014</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041586669430752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02085376469642</v>
+        <v>1.014216642821827</v>
       </c>
       <c r="D6">
-        <v>1.038627989518402</v>
+        <v>1.033769076317139</v>
       </c>
       <c r="E6">
-        <v>1.034027024650926</v>
+        <v>1.028453260957721</v>
       </c>
       <c r="F6">
-        <v>1.045253833571232</v>
+        <v>1.039992788930191</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051213506283163</v>
+        <v>1.049136895388932</v>
       </c>
       <c r="J6">
-        <v>1.03922345330199</v>
+        <v>1.032743197351244</v>
       </c>
       <c r="K6">
-        <v>1.048032198883581</v>
+        <v>1.043225437599605</v>
       </c>
       <c r="L6">
-        <v>1.043480602208238</v>
+        <v>1.037967371082263</v>
       </c>
       <c r="M6">
-        <v>1.054587881537716</v>
+        <v>1.049382456882441</v>
       </c>
       <c r="N6">
-        <v>1.040699269806275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014778907039028</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041648512907095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019478555724241</v>
+        <v>1.013121956715049</v>
       </c>
       <c r="D7">
-        <v>1.037597070856711</v>
+        <v>1.033033967702386</v>
       </c>
       <c r="E7">
-        <v>1.032901713829449</v>
+        <v>1.027583053240256</v>
       </c>
       <c r="F7">
-        <v>1.044087771926054</v>
+        <v>1.03909827498979</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050899450861993</v>
+        <v>1.048954225233034</v>
       </c>
       <c r="J7">
-        <v>1.038390876191623</v>
+        <v>1.032189884858437</v>
       </c>
       <c r="K7">
-        <v>1.047259101906116</v>
+        <v>1.042746528756124</v>
       </c>
       <c r="L7">
-        <v>1.042615747600674</v>
+        <v>1.037356700161113</v>
       </c>
       <c r="M7">
-        <v>1.053678861209302</v>
+        <v>1.048743801478431</v>
       </c>
       <c r="N7">
-        <v>1.039865510340914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014591741078517</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041314074733436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013618529151193</v>
+        <v>1.008464641687942</v>
       </c>
       <c r="D8">
-        <v>1.033208305166844</v>
+        <v>1.029907802380392</v>
       </c>
       <c r="E8">
-        <v>1.028117851128326</v>
+        <v>1.023890937981649</v>
       </c>
       <c r="F8">
-        <v>1.03912843596702</v>
+        <v>1.035300440614147</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049540158460359</v>
+        <v>1.048154630387899</v>
       </c>
       <c r="J8">
-        <v>1.03483892951626</v>
+        <v>1.029830119949415</v>
       </c>
       <c r="K8">
-        <v>1.043956480041746</v>
+        <v>1.040697337606313</v>
       </c>
       <c r="L8">
-        <v>1.038929955772868</v>
+        <v>1.03475673086958</v>
       </c>
       <c r="M8">
-        <v>1.049803241771814</v>
+        <v>1.046022567936005</v>
       </c>
       <c r="N8">
-        <v>1.036308519493858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013792630567091</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039869691649933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002838094370978</v>
+        <v>0.999949447589452</v>
       </c>
       <c r="D9">
-        <v>1.025154452764311</v>
+        <v>1.02421202933558</v>
       </c>
       <c r="E9">
-        <v>1.019363767979488</v>
+        <v>1.017184745785399</v>
       </c>
       <c r="F9">
-        <v>1.03004490863787</v>
+        <v>1.028394610473102</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046961637884546</v>
+        <v>1.046617504135153</v>
       </c>
       <c r="J9">
-        <v>1.028291028741434</v>
+        <v>1.025503991118857</v>
       </c>
       <c r="K9">
-        <v>1.037852186171755</v>
+        <v>1.036924127923946</v>
       </c>
       <c r="L9">
-        <v>1.032150303748206</v>
+        <v>1.030005032218348</v>
       </c>
       <c r="M9">
-        <v>1.04266863519392</v>
+        <v>1.041043210629887</v>
       </c>
       <c r="N9">
-        <v>1.029751319948877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012325717867327</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037198615886416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9953125901005873</v>
+        <v>0.994061189268367</v>
       </c>
       <c r="D10">
-        <v>1.019549786987407</v>
+        <v>1.0202981882671</v>
       </c>
       <c r="E10">
-        <v>1.013287630453249</v>
+        <v>1.012582062147229</v>
       </c>
       <c r="F10">
-        <v>1.023734671626747</v>
+        <v>1.023651259421185</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045111635290065</v>
+        <v>1.04551183450092</v>
       </c>
       <c r="J10">
-        <v>1.02371342573906</v>
+        <v>1.022512430166896</v>
       </c>
       <c r="K10">
-        <v>1.033574812988683</v>
+        <v>1.034310375384789</v>
       </c>
       <c r="L10">
-        <v>1.027421046729324</v>
+        <v>1.026727799794745</v>
       </c>
       <c r="M10">
-        <v>1.037688216732228</v>
+        <v>1.037606221898111</v>
       </c>
       <c r="N10">
-        <v>1.025167216225181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011311346065078</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035367337034817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9919656759414025</v>
+        <v>0.991468544567405</v>
       </c>
       <c r="D11">
-        <v>1.017062238781062</v>
+        <v>1.01858817122019</v>
       </c>
       <c r="E11">
-        <v>1.010594358984995</v>
+        <v>1.010566271936036</v>
       </c>
       <c r="F11">
-        <v>1.020936394028619</v>
+        <v>1.021573966419142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044277620711817</v>
+        <v>1.045019996320349</v>
       </c>
       <c r="J11">
-        <v>1.021676554419281</v>
+        <v>1.021200600041017</v>
       </c>
       <c r="K11">
-        <v>1.031669403301382</v>
+        <v>1.033167853933616</v>
       </c>
       <c r="L11">
-        <v>1.025319209131081</v>
+        <v>1.025291637415844</v>
       </c>
       <c r="M11">
-        <v>1.035473994001882</v>
+        <v>1.036100183748843</v>
       </c>
       <c r="N11">
-        <v>1.023127452314495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010867615950748</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03459237608414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9907084801542557</v>
+        <v>0.9904903229767914</v>
       </c>
       <c r="D12">
-        <v>1.016128693289187</v>
+        <v>1.017939853197303</v>
       </c>
       <c r="E12">
-        <v>1.009584119681859</v>
+        <v>1.009805811742075</v>
       </c>
       <c r="F12">
-        <v>1.019886585185502</v>
+        <v>1.020789598987619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043962707965278</v>
+        <v>1.044830199952913</v>
       </c>
       <c r="J12">
-        <v>1.020911346658668</v>
+        <v>1.020702674472184</v>
       </c>
       <c r="K12">
-        <v>1.030953281825765</v>
+        <v>1.032731239911738</v>
       </c>
       <c r="L12">
-        <v>1.024529978077662</v>
+        <v>1.0247475286507</v>
       </c>
       <c r="M12">
-        <v>1.03464245590265</v>
+        <v>1.035529055036218</v>
       </c>
       <c r="N12">
-        <v>1.022361157871092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010698585415042</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03428367547574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9909787989091373</v>
+        <v>0.9906992471874303</v>
       </c>
       <c r="D13">
-        <v>1.016329381944051</v>
+        <v>1.018077480557964</v>
       </c>
       <c r="E13">
-        <v>1.00980127276375</v>
+        <v>1.009967923096116</v>
       </c>
       <c r="F13">
-        <v>1.020112251976218</v>
+        <v>1.020956703646497</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044030492515071</v>
+        <v>1.044870264703622</v>
       </c>
       <c r="J13">
-        <v>1.021075883233305</v>
+        <v>1.020808432865173</v>
       </c>
       <c r="K13">
-        <v>1.031107277049695</v>
+        <v>1.032823450869573</v>
       </c>
       <c r="L13">
-        <v>1.024699662789855</v>
+        <v>1.02486321183811</v>
       </c>
       <c r="M13">
-        <v>1.034821241340319</v>
+        <v>1.035650401807291</v>
       </c>
       <c r="N13">
-        <v>1.022525928106537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010734367419792</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034346376787846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9918620458185652</v>
+        <v>0.9913873062741867</v>
       </c>
       <c r="D14">
-        <v>1.016985269278385</v>
+        <v>1.018533971259412</v>
       </c>
       <c r="E14">
-        <v>1.010511055897229</v>
+        <v>1.010502986721148</v>
       </c>
       <c r="F14">
-        <v>1.020849831760764</v>
+        <v>1.021508647486172</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044251695460447</v>
+        <v>1.045004034605439</v>
       </c>
       <c r="J14">
-        <v>1.021613480416274</v>
+        <v>1.021158998364908</v>
       </c>
       <c r="K14">
-        <v>1.031610381353535</v>
+        <v>1.033131150347944</v>
       </c>
       <c r="L14">
-        <v>1.025254147132772</v>
+        <v>1.025246226229561</v>
       </c>
       <c r="M14">
-        <v>1.035405446459</v>
+        <v>1.036052482662108</v>
       </c>
       <c r="N14">
-        <v>1.023064288739169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010853442532993</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034565356659634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9924043650876829</v>
+        <v>0.9918126711927361</v>
       </c>
       <c r="D15">
-        <v>1.017388102732178</v>
+        <v>1.018817885560698</v>
       </c>
       <c r="E15">
-        <v>1.010947058031278</v>
+        <v>1.010834429093236</v>
       </c>
       <c r="F15">
-        <v>1.021302884802091</v>
+        <v>1.021850747559597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044387301763526</v>
+        <v>1.045087606238617</v>
       </c>
       <c r="J15">
-        <v>1.021943556759605</v>
+        <v>1.021376887006793</v>
       </c>
       <c r="K15">
-        <v>1.03191924049013</v>
+        <v>1.033323433756085</v>
       </c>
       <c r="L15">
-        <v>1.025594642624694</v>
+        <v>1.025484067073663</v>
       </c>
       <c r="M15">
-        <v>1.035764178887082</v>
+        <v>1.036302322598662</v>
       </c>
       <c r="N15">
-        <v>1.023394833828768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010927687309773</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034707183839903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9955327914573533</v>
+        <v>0.9942543124066473</v>
       </c>
       <c r="D16">
-        <v>1.019713561661066</v>
+        <v>1.020439454913074</v>
       </c>
       <c r="E16">
-        <v>1.013465021580583</v>
+        <v>1.012736556665631</v>
       </c>
       <c r="F16">
-        <v>1.023918953405964</v>
+        <v>1.023812392269646</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045166277417481</v>
+        <v>1.045557564990756</v>
       </c>
       <c r="J16">
-        <v>1.023847419417843</v>
+        <v>1.022620240959788</v>
       </c>
       <c r="K16">
-        <v>1.033700115787281</v>
+        <v>1.03441359748239</v>
       </c>
       <c r="L16">
-        <v>1.027559366999437</v>
+        <v>1.026843580658188</v>
       </c>
       <c r="M16">
-        <v>1.037833917733312</v>
+        <v>1.037729161250286</v>
       </c>
       <c r="N16">
-        <v>1.025301400190357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011349841850699</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035481137963639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9974710221394631</v>
+        <v>0.9957707669690411</v>
       </c>
       <c r="D17">
-        <v>1.021155709202285</v>
+        <v>1.021448168759181</v>
       </c>
       <c r="E17">
-        <v>1.015027471791267</v>
+        <v>1.013920228196459</v>
       </c>
       <c r="F17">
-        <v>1.025541955004394</v>
+        <v>1.02503286266544</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045645968336909</v>
+        <v>1.045846790347211</v>
       </c>
       <c r="J17">
-        <v>1.025026733338893</v>
+        <v>1.023392444149723</v>
       </c>
       <c r="K17">
-        <v>1.034802698664998</v>
+        <v>1.035090302102826</v>
       </c>
       <c r="L17">
-        <v>1.02877704733352</v>
+        <v>1.027688509562819</v>
       </c>
       <c r="M17">
-        <v>1.039116487335432</v>
+        <v>1.038615763862991</v>
       </c>
       <c r="N17">
-        <v>1.026482388872444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011612006904764</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035962181362189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985930897066716</v>
+        <v>0.9966431284204839</v>
       </c>
       <c r="D18">
-        <v>1.021991064921365</v>
+        <v>1.022024776130897</v>
       </c>
       <c r="E18">
-        <v>1.015932849291231</v>
+        <v>1.014600703570275</v>
       </c>
       <c r="F18">
-        <v>1.02648230127153</v>
+        <v>1.025733800373367</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045922596823847</v>
+        <v>1.046009339926731</v>
       </c>
       <c r="J18">
-        <v>1.025709353987845</v>
+        <v>1.0238335569316</v>
       </c>
       <c r="K18">
-        <v>1.035440701697735</v>
+        <v>1.035473862770443</v>
       </c>
       <c r="L18">
-        <v>1.029482113878141</v>
+        <v>1.028172080891397</v>
       </c>
       <c r="M18">
-        <v>1.039859053575876</v>
+        <v>1.039122642569274</v>
       </c>
       <c r="N18">
-        <v>1.027165978921015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011761149189348</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036221730506374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9989742706273785</v>
+        <v>0.9969449672977834</v>
       </c>
       <c r="D19">
-        <v>1.022274924629136</v>
+        <v>1.022227657383277</v>
       </c>
       <c r="E19">
-        <v>1.016240560641114</v>
+        <v>1.014837261338218</v>
       </c>
       <c r="F19">
-        <v>1.026801877282123</v>
+        <v>1.0259779292719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046016387832161</v>
+        <v>1.046067648902972</v>
       </c>
       <c r="J19">
-        <v>1.025941230646896</v>
+        <v>1.023988583574292</v>
       </c>
       <c r="K19">
-        <v>1.03565738730377</v>
+        <v>1.0356108868329</v>
       </c>
       <c r="L19">
-        <v>1.029721655365828</v>
+        <v>1.02834150941172</v>
       </c>
       <c r="M19">
-        <v>1.040111322767594</v>
+        <v>1.039300603041215</v>
       </c>
       <c r="N19">
-        <v>1.027398184871518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011814040134785</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036325005190495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9972639495238278</v>
+        <v>0.9956080883835637</v>
       </c>
       <c r="D20">
-        <v>1.021001585978264</v>
+        <v>1.021339572961222</v>
       </c>
       <c r="E20">
-        <v>1.014860456912999</v>
+        <v>1.013793066610364</v>
       </c>
       <c r="F20">
-        <v>1.025368479852431</v>
+        <v>1.024901710080567</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045594830837676</v>
+        <v>1.045815641412406</v>
       </c>
       <c r="J20">
-        <v>1.024900750281335</v>
+        <v>1.023309366996071</v>
       </c>
       <c r="K20">
-        <v>1.034684933563514</v>
+        <v>1.03501729064736</v>
       </c>
       <c r="L20">
-        <v>1.028646940931258</v>
+        <v>1.027597641318357</v>
       </c>
       <c r="M20">
-        <v>1.038979455157621</v>
+        <v>1.038520383256555</v>
       </c>
       <c r="N20">
-        <v>1.026356226904494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011583755149278</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035909223795038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9916023443094221</v>
+        <v>0.9911922681953113</v>
       </c>
       <c r="D21">
-        <v>1.016792394376738</v>
+        <v>1.018409005240315</v>
       </c>
       <c r="E21">
-        <v>1.010302318086143</v>
+        <v>1.010352643390725</v>
       </c>
       <c r="F21">
-        <v>1.020632924298315</v>
+        <v>1.02135417827107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044186699554265</v>
+        <v>1.044969171255408</v>
       </c>
       <c r="J21">
-        <v>1.021455412822548</v>
+        <v>1.021062909165498</v>
       </c>
       <c r="K21">
-        <v>1.031462463693672</v>
+        <v>1.033049809600926</v>
       </c>
       <c r="L21">
-        <v>1.025091103683299</v>
+        <v>1.025140500792259</v>
       </c>
       <c r="M21">
-        <v>1.035233666640795</v>
+        <v>1.035941976503777</v>
       </c>
       <c r="N21">
-        <v>1.022905996671329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010821476018792</v>
+      </c>
+      <c r="Q21">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R21">
+        <v>1.034521368956955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9879612515564503</v>
+        <v>0.9883560711617211</v>
       </c>
       <c r="D22">
-        <v>1.014090361597546</v>
+        <v>1.016526619993859</v>
       </c>
       <c r="E22">
-        <v>1.007379250661774</v>
+        <v>1.008149006005221</v>
       </c>
       <c r="F22">
-        <v>1.01759502548361</v>
+        <v>1.019080392668779</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043271620086303</v>
+        <v>1.04441306758736</v>
       </c>
       <c r="J22">
-        <v>1.019239084704362</v>
+        <v>1.019615973906704</v>
       </c>
       <c r="K22">
-        <v>1.029387759885411</v>
+        <v>1.031777640100032</v>
       </c>
       <c r="L22">
-        <v>1.022805926983541</v>
+        <v>1.023560739767367</v>
       </c>
       <c r="M22">
-        <v>1.03282579829476</v>
+        <v>1.03428310852852</v>
       </c>
       <c r="N22">
-        <v>1.020686521112999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010329589458292</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033608377759229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9898994394108579</v>
+        <v>0.9898557354160185</v>
       </c>
       <c r="D23">
-        <v>1.015528180383237</v>
+        <v>1.0175160864436</v>
       </c>
       <c r="E23">
-        <v>1.008934414352313</v>
+        <v>1.009311809452002</v>
       </c>
       <c r="F23">
-        <v>1.019211381176988</v>
+        <v>1.020279555414199</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043759599699749</v>
+        <v>1.044704316746597</v>
       </c>
       <c r="J23">
-        <v>1.020418892118073</v>
+        <v>1.020377113122553</v>
       </c>
       <c r="K23">
-        <v>1.030492334729288</v>
+        <v>1.032443386291063</v>
       </c>
       <c r="L23">
-        <v>1.024022171846043</v>
+        <v>1.024392435562475</v>
       </c>
       <c r="M23">
-        <v>1.034107399344064</v>
+        <v>1.035155933104739</v>
       </c>
       <c r="N23">
-        <v>1.021868003988563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010587538560157</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034069448561416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9973575428456982</v>
+        <v>0.9956672279657356</v>
       </c>
       <c r="D24">
-        <v>1.021071245596873</v>
+        <v>1.02137021640639</v>
       </c>
       <c r="E24">
-        <v>1.014935942171778</v>
+        <v>1.013836657417293</v>
       </c>
       <c r="F24">
-        <v>1.025446885310546</v>
+        <v>1.024945407051059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045617947447195</v>
+        <v>1.045820961467515</v>
       </c>
       <c r="J24">
-        <v>1.024957692807262</v>
+        <v>1.023333090614613</v>
       </c>
       <c r="K24">
-        <v>1.034738162324085</v>
+        <v>1.035032160143602</v>
       </c>
       <c r="L24">
-        <v>1.028705746411099</v>
+        <v>1.027625066168949</v>
       </c>
       <c r="M24">
-        <v>1.039041391174994</v>
+        <v>1.038548171340116</v>
       </c>
       <c r="N24">
-        <v>1.026413250295339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01159054444883</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035892333516788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005682213511506</v>
+        <v>1.002202281584779</v>
       </c>
       <c r="D25">
-        <v>1.027276517106953</v>
+        <v>1.025724560622822</v>
       </c>
       <c r="E25">
-        <v>1.02166752866785</v>
+        <v>1.018955917509919</v>
       </c>
       <c r="F25">
-        <v>1.032436322710684</v>
+        <v>1.030220628577291</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04765073592097</v>
+        <v>1.047038443345627</v>
       </c>
       <c r="J25">
-        <v>1.030019850116105</v>
+        <v>1.026655756795875</v>
       </c>
       <c r="K25">
-        <v>1.039465658350852</v>
+        <v>1.037936242125305</v>
       </c>
       <c r="L25">
-        <v>1.033938544283962</v>
+        <v>1.031266925176937</v>
       </c>
       <c r="M25">
-        <v>1.044551140878034</v>
+        <v>1.042367246607288</v>
       </c>
       <c r="N25">
-        <v>1.031482596448198</v>
+        <v>1.012717602347126</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03794280552284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007234086604756</v>
+        <v>1.006822823551446</v>
       </c>
       <c r="D2">
-        <v>1.029075842215678</v>
+        <v>1.028181344961925</v>
       </c>
       <c r="E2">
-        <v>1.022916320651356</v>
+        <v>1.022484190184194</v>
       </c>
       <c r="F2">
-        <v>1.034296246846018</v>
+        <v>1.033665165108067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047933229195869</v>
+        <v>1.047562571128991</v>
       </c>
       <c r="J2">
-        <v>1.029200559464279</v>
+        <v>1.028801362731391</v>
       </c>
       <c r="K2">
-        <v>1.040144437559684</v>
+        <v>1.039261548525736</v>
       </c>
       <c r="L2">
-        <v>1.034065366140275</v>
+        <v>1.033638925394773</v>
       </c>
       <c r="M2">
-        <v>1.045297595728202</v>
+        <v>1.044674598129026</v>
       </c>
       <c r="N2">
-        <v>1.013578376137226</v>
+        <v>1.014792973592055</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039455873516621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038840360231255</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02249447275867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010817738585243</v>
+        <v>1.010273398486515</v>
       </c>
       <c r="D3">
-        <v>1.031479062384883</v>
+        <v>1.030417915678226</v>
       </c>
       <c r="E3">
-        <v>1.025752192444795</v>
+        <v>1.025195753854837</v>
       </c>
       <c r="F3">
-        <v>1.037214202010504</v>
+        <v>1.036441686056094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048557531894407</v>
+        <v>1.048113258211077</v>
       </c>
       <c r="J3">
-        <v>1.031017783199417</v>
+        <v>1.030487865044291</v>
       </c>
       <c r="K3">
-        <v>1.041724403299444</v>
+        <v>1.040675842325084</v>
       </c>
       <c r="L3">
-        <v>1.036065840215299</v>
+        <v>1.035516088984633</v>
       </c>
       <c r="M3">
-        <v>1.047392072708855</v>
+        <v>1.046628591064942</v>
       </c>
       <c r="N3">
-        <v>1.014194019351196</v>
+        <v>1.015247304003366</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040570382176046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039837448502656</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022773264015783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013099833395019</v>
+        <v>1.012471601200742</v>
       </c>
       <c r="D4">
-        <v>1.033012964473612</v>
+        <v>1.031846235740455</v>
       </c>
       <c r="E4">
-        <v>1.027563841451634</v>
+        <v>1.026928896607761</v>
       </c>
       <c r="F4">
-        <v>1.03907749904998</v>
+        <v>1.038215559112183</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048946231811877</v>
+        <v>1.04845526267304</v>
       </c>
       <c r="J4">
-        <v>1.032174278060845</v>
+        <v>1.031561574329936</v>
       </c>
       <c r="K4">
-        <v>1.04272863274237</v>
+        <v>1.041574917172978</v>
       </c>
       <c r="L4">
-        <v>1.037340598813534</v>
+        <v>1.036712824182647</v>
       </c>
       <c r="M4">
-        <v>1.04872610459286</v>
+        <v>1.04787363745605</v>
       </c>
       <c r="N4">
-        <v>1.014585722039928</v>
+        <v>1.015536517114879</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041281350625787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040474145933697</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022948223942129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014053530996712</v>
+        <v>1.013390446639252</v>
       </c>
       <c r="D5">
-        <v>1.033656665833105</v>
+        <v>1.032446000205929</v>
       </c>
       <c r="E5">
-        <v>1.028322780616782</v>
+        <v>1.027655195554369</v>
       </c>
       <c r="F5">
-        <v>1.03985819728712</v>
+        <v>1.038959067416158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04910780866632</v>
+        <v>1.048597389824534</v>
       </c>
       <c r="J5">
-        <v>1.032658725499529</v>
+        <v>1.032011545600716</v>
       </c>
       <c r="K5">
-        <v>1.043150314758982</v>
+        <v>1.041952796862141</v>
       </c>
       <c r="L5">
-        <v>1.037874640375071</v>
+        <v>1.037214393206988</v>
       </c>
       <c r="M5">
-        <v>1.049285086126488</v>
+        <v>1.048395574960278</v>
       </c>
       <c r="N5">
-        <v>1.014749997414014</v>
+        <v>1.015657885666938</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041586669430752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040749203301251</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023021599719623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014216642821827</v>
+        <v>1.013547623311774</v>
       </c>
       <c r="D6">
-        <v>1.033769076317139</v>
+        <v>1.032550976352116</v>
       </c>
       <c r="E6">
-        <v>1.028453260957721</v>
+        <v>1.027780121867956</v>
       </c>
       <c r="F6">
-        <v>1.039992788930191</v>
+        <v>1.039087346101085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049136895388932</v>
+        <v>1.048623178465609</v>
       </c>
       <c r="J6">
-        <v>1.032743197351244</v>
+        <v>1.032090142848853</v>
       </c>
       <c r="K6">
-        <v>1.043225437599605</v>
+        <v>1.042020506163901</v>
       </c>
       <c r="L6">
-        <v>1.037967371082263</v>
+        <v>1.03730159702204</v>
       </c>
       <c r="M6">
-        <v>1.049382456882441</v>
+        <v>1.048486655977022</v>
       </c>
       <c r="N6">
-        <v>1.014778907039028</v>
+        <v>1.015679297116401</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041648512907095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040806672871576</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023035191269305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013121956715049</v>
+        <v>1.01250039758806</v>
       </c>
       <c r="D7">
-        <v>1.033033967702386</v>
+        <v>1.031871721727558</v>
       </c>
       <c r="E7">
-        <v>1.027583053240256</v>
+        <v>1.026953879305886</v>
       </c>
       <c r="F7">
-        <v>1.03909827498979</v>
+        <v>1.038241593209415</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048954225233034</v>
+        <v>1.048465410589216</v>
       </c>
       <c r="J7">
-        <v>1.032189884858437</v>
+        <v>1.031583682607321</v>
       </c>
       <c r="K7">
-        <v>1.042746528756124</v>
+        <v>1.041597240908825</v>
       </c>
       <c r="L7">
-        <v>1.037356700161113</v>
+        <v>1.036734628523501</v>
       </c>
       <c r="M7">
-        <v>1.048743801478431</v>
+        <v>1.047896531058239</v>
       </c>
       <c r="N7">
-        <v>1.014591741078517</v>
+        <v>1.015568848494843</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041314074733436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040511997932701</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022954367550434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008464641687942</v>
+        <v>1.00803046607681</v>
       </c>
       <c r="D8">
-        <v>1.029907802380392</v>
+        <v>1.028972625071457</v>
       </c>
       <c r="E8">
-        <v>1.023890937981649</v>
+        <v>1.023436021883831</v>
       </c>
       <c r="F8">
-        <v>1.035300440614147</v>
+        <v>1.034639384210842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048154630387899</v>
+        <v>1.047766597691488</v>
       </c>
       <c r="J8">
-        <v>1.029830119949415</v>
+        <v>1.029408258717943</v>
       </c>
       <c r="K8">
-        <v>1.040697337606313</v>
+        <v>1.03977393968645</v>
       </c>
       <c r="L8">
-        <v>1.03475673086958</v>
+        <v>1.034307625928378</v>
       </c>
       <c r="M8">
-        <v>1.046022567936005</v>
+        <v>1.045369727650806</v>
       </c>
       <c r="N8">
-        <v>1.013792630567091</v>
+        <v>1.015035637483063</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039869691649933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039227800096643</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022599110722324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.999949447589452</v>
+        <v>0.999840241977216</v>
       </c>
       <c r="D9">
-        <v>1.02421202933558</v>
+        <v>1.023678518356367</v>
       </c>
       <c r="E9">
-        <v>1.017184745785399</v>
+        <v>1.017032213704336</v>
       </c>
       <c r="F9">
-        <v>1.028394610473102</v>
+        <v>1.028076394155309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046617504135153</v>
+        <v>1.046406689948754</v>
       </c>
       <c r="J9">
-        <v>1.025503991118857</v>
+        <v>1.025398642973565</v>
       </c>
       <c r="K9">
-        <v>1.036924127923946</v>
+        <v>1.036398764104858</v>
       </c>
       <c r="L9">
-        <v>1.030005032218348</v>
+        <v>1.029854869612851</v>
       </c>
       <c r="M9">
-        <v>1.041043210629887</v>
+        <v>1.040729802225455</v>
       </c>
       <c r="N9">
-        <v>1.012325717867327</v>
+        <v>1.013964163211</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037198615886416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036837883510849</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021919912155593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.994061189268367</v>
+        <v>0.9942161575829259</v>
       </c>
       <c r="D10">
-        <v>1.0202981882671</v>
+        <v>1.020070397347784</v>
       </c>
       <c r="E10">
-        <v>1.012582062147229</v>
+        <v>1.012672328720906</v>
       </c>
       <c r="F10">
-        <v>1.023651259421185</v>
+        <v>1.023601981742656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04551183450092</v>
+        <v>1.045436497910027</v>
       </c>
       <c r="J10">
-        <v>1.022512430166896</v>
+        <v>1.022661146739517</v>
       </c>
       <c r="K10">
-        <v>1.034310375384789</v>
+        <v>1.034086489659262</v>
       </c>
       <c r="L10">
-        <v>1.026727799794745</v>
+        <v>1.026816488798612</v>
       </c>
       <c r="M10">
-        <v>1.037606221898111</v>
+        <v>1.037557781704499</v>
       </c>
       <c r="N10">
-        <v>1.011311346065078</v>
+        <v>1.013343202285307</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035367337034817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035221448305072</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021445679233449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.991468544567405</v>
+        <v>0.9917959374114537</v>
       </c>
       <c r="D11">
-        <v>1.01858817122019</v>
+        <v>1.01853599584096</v>
       </c>
       <c r="E11">
-        <v>1.010566271936036</v>
+        <v>1.010812456500356</v>
       </c>
       <c r="F11">
-        <v>1.021573966419142</v>
+        <v>1.021689353602197</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045019996320349</v>
+        <v>1.045023917271931</v>
       </c>
       <c r="J11">
-        <v>1.021200600041017</v>
+        <v>1.021514043074686</v>
       </c>
       <c r="K11">
-        <v>1.033167853933616</v>
+        <v>1.033116616458126</v>
       </c>
       <c r="L11">
-        <v>1.025291637415844</v>
+        <v>1.02553330632039</v>
       </c>
       <c r="M11">
-        <v>1.036100183748843</v>
+        <v>1.036213512883948</v>
       </c>
       <c r="N11">
-        <v>1.010867615950748</v>
+        <v>1.01326344426797</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03459237608414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034571774083379</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021249330879225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9904903229767914</v>
+        <v>0.9908881210413971</v>
       </c>
       <c r="D12">
-        <v>1.017939853197303</v>
+        <v>1.01795785880731</v>
       </c>
       <c r="E12">
-        <v>1.009805811742075</v>
+        <v>1.010115545212407</v>
       </c>
       <c r="F12">
-        <v>1.020789598987619</v>
+        <v>1.020971601295436</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044830199952913</v>
+        <v>1.04486596962338</v>
       </c>
       <c r="J12">
-        <v>1.020702674472184</v>
+        <v>1.02108318163608</v>
       </c>
       <c r="K12">
-        <v>1.032731239911738</v>
+        <v>1.032748916218717</v>
       </c>
       <c r="L12">
-        <v>1.0247475286507</v>
+        <v>1.025051479881922</v>
       </c>
       <c r="M12">
-        <v>1.035529055036218</v>
+        <v>1.035707753543471</v>
       </c>
       <c r="N12">
-        <v>1.010698585415042</v>
+        <v>1.013249191492773</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03428367547574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034311803250257</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021174073929656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9906992471874303</v>
+        <v>0.9910817609475497</v>
       </c>
       <c r="D13">
-        <v>1.018077480557964</v>
+        <v>1.018080292002653</v>
       </c>
       <c r="E13">
-        <v>1.009967923096116</v>
+        <v>1.01026386509353</v>
       </c>
       <c r="F13">
-        <v>1.020956703646497</v>
+        <v>1.021124261985482</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044870264703622</v>
+        <v>1.044899139767962</v>
       </c>
       <c r="J13">
-        <v>1.020808432865173</v>
+        <v>1.021174390663236</v>
       </c>
       <c r="K13">
-        <v>1.032823450869573</v>
+        <v>1.032826211084943</v>
       </c>
       <c r="L13">
-        <v>1.02486321183811</v>
+        <v>1.025153649783973</v>
       </c>
       <c r="M13">
-        <v>1.035650401807291</v>
+        <v>1.035814929935184</v>
       </c>
       <c r="N13">
-        <v>1.010734367419792</v>
+        <v>1.01325114759284</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034346376787846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034363715176254</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02118973272566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9913873062741867</v>
+        <v>0.9917204322487932</v>
       </c>
       <c r="D14">
-        <v>1.018533971259412</v>
+        <v>1.01848753057373</v>
       </c>
       <c r="E14">
-        <v>1.010502986721148</v>
+        <v>1.010754348147376</v>
       </c>
       <c r="F14">
-        <v>1.021508647486172</v>
+        <v>1.021629467598573</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045004034605439</v>
+        <v>1.04501055799426</v>
       </c>
       <c r="J14">
-        <v>1.021158998364908</v>
+        <v>1.021477906709822</v>
       </c>
       <c r="K14">
-        <v>1.033131150347944</v>
+        <v>1.033085545678702</v>
       </c>
       <c r="L14">
-        <v>1.025246226229561</v>
+        <v>1.025492970282978</v>
       </c>
       <c r="M14">
-        <v>1.036052482662108</v>
+        <v>1.036171144670319</v>
       </c>
       <c r="N14">
-        <v>1.010853442532993</v>
+        <v>1.013261769659448</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034565356659634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034548633962995</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021242902689852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9918126711927361</v>
+        <v>0.9921159954327672</v>
       </c>
       <c r="D15">
-        <v>1.018817885560698</v>
+        <v>1.018741583679594</v>
       </c>
       <c r="E15">
-        <v>1.010834429093236</v>
+        <v>1.011058876599666</v>
       </c>
       <c r="F15">
-        <v>1.021850747559597</v>
+        <v>1.021943305720454</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045087606238617</v>
+        <v>1.045080583803932</v>
       </c>
       <c r="J15">
-        <v>1.021376887006793</v>
+        <v>1.021667377631436</v>
       </c>
       <c r="K15">
-        <v>1.033323433756085</v>
+        <v>1.033248495133261</v>
       </c>
       <c r="L15">
-        <v>1.025484067073663</v>
+        <v>1.025704423169415</v>
       </c>
       <c r="M15">
-        <v>1.036302322598662</v>
+        <v>1.036393240119294</v>
       </c>
       <c r="N15">
-        <v>1.010927687309773</v>
+        <v>1.013271264894848</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034707183839903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034670288877701</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021276631517635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9942543124066473</v>
+        <v>0.9943977142020887</v>
       </c>
       <c r="D16">
-        <v>1.020439454913074</v>
+        <v>1.020199841832346</v>
       </c>
       <c r="E16">
-        <v>1.012736556665631</v>
+        <v>1.012816335421822</v>
       </c>
       <c r="F16">
-        <v>1.023812392269646</v>
+        <v>1.02375202185981</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045557564990756</v>
+        <v>1.045476818665131</v>
       </c>
       <c r="J16">
-        <v>1.022620240959788</v>
+        <v>1.022757879264631</v>
       </c>
       <c r="K16">
-        <v>1.03441359748239</v>
+        <v>1.034178078860462</v>
       </c>
       <c r="L16">
-        <v>1.026843580658188</v>
+        <v>1.026921969752945</v>
       </c>
       <c r="M16">
-        <v>1.037729161250286</v>
+        <v>1.03766981345141</v>
       </c>
       <c r="N16">
-        <v>1.011349841850699</v>
+        <v>1.013358288982885</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035481137963639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035331003196784</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021467059467515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9957707669690411</v>
+        <v>0.995826085456925</v>
       </c>
       <c r="D17">
-        <v>1.021448168759181</v>
+        <v>1.021115389368639</v>
       </c>
       <c r="E17">
-        <v>1.013920228196459</v>
+        <v>1.013920002695943</v>
       </c>
       <c r="F17">
-        <v>1.02503286266544</v>
+        <v>1.0248868458822</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045846790347211</v>
+        <v>1.045724237414024</v>
       </c>
       <c r="J17">
-        <v>1.023392444149723</v>
+        <v>1.023445611397783</v>
       </c>
       <c r="K17">
-        <v>1.035090302102826</v>
+        <v>1.034763048599449</v>
       </c>
       <c r="L17">
-        <v>1.027688509562819</v>
+        <v>1.027688287877289</v>
       </c>
       <c r="M17">
-        <v>1.038615763862991</v>
+        <v>1.038472149393827</v>
       </c>
       <c r="N17">
-        <v>1.011612006904764</v>
+        <v>1.01344953592442</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035962181362189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035747431346759</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021586955505504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9966431284204839</v>
+        <v>0.9966520995145299</v>
       </c>
       <c r="D18">
-        <v>1.022024776130897</v>
+        <v>1.02164144641177</v>
       </c>
       <c r="E18">
-        <v>1.014600703570275</v>
+        <v>1.0145582225483</v>
       </c>
       <c r="F18">
-        <v>1.025733800373367</v>
+        <v>1.025542036297806</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046009339926731</v>
+        <v>1.045864225932524</v>
       </c>
       <c r="J18">
-        <v>1.0238335569316</v>
+        <v>1.023842185884541</v>
       </c>
       <c r="K18">
-        <v>1.035473862770443</v>
+        <v>1.035096791401168</v>
       </c>
       <c r="L18">
-        <v>1.028172080891397</v>
+        <v>1.028130306256603</v>
       </c>
       <c r="M18">
-        <v>1.039122642569274</v>
+        <v>1.03893397953963</v>
       </c>
       <c r="N18">
-        <v>1.011761149189348</v>
+        <v>1.013515079152362</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036221730506374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035970621052967</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021654540491431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9969449672977834</v>
+        <v>0.9969387109555103</v>
       </c>
       <c r="D19">
-        <v>1.022227657383277</v>
+        <v>1.021827499746655</v>
       </c>
       <c r="E19">
-        <v>1.014837261338218</v>
+        <v>1.014780867917574</v>
       </c>
       <c r="F19">
-        <v>1.0259779292719</v>
+        <v>1.025771027626558</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046067648902972</v>
+        <v>1.045915021856541</v>
       </c>
       <c r="J19">
-        <v>1.023988583574292</v>
+        <v>1.023982564243445</v>
       </c>
       <c r="K19">
-        <v>1.0356108868329</v>
+        <v>1.035217224252373</v>
       </c>
       <c r="L19">
-        <v>1.02834150941172</v>
+        <v>1.028286048161185</v>
       </c>
       <c r="M19">
-        <v>1.039300603041215</v>
+        <v>1.039097027433709</v>
       </c>
       <c r="N19">
-        <v>1.011814040134785</v>
+        <v>1.013541649843902</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036325005190495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03606278613636</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021679609276679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9956080883835637</v>
+        <v>0.9956723997855254</v>
       </c>
       <c r="D20">
-        <v>1.021339572961222</v>
+        <v>1.021016448109666</v>
       </c>
       <c r="E20">
-        <v>1.013793066610364</v>
+        <v>1.01380102498382</v>
       </c>
       <c r="F20">
-        <v>1.024901710080567</v>
+        <v>1.024764502331892</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045815641412406</v>
+        <v>1.045697412764123</v>
       </c>
       <c r="J20">
-        <v>1.023309366996071</v>
+        <v>1.023371168506728</v>
       </c>
       <c r="K20">
-        <v>1.03501729064736</v>
+        <v>1.034699548033275</v>
       </c>
       <c r="L20">
-        <v>1.027597641318357</v>
+        <v>1.02760546462718</v>
       </c>
       <c r="M20">
-        <v>1.038520383256555</v>
+        <v>1.03838544002586</v>
       </c>
       <c r="N20">
-        <v>1.011583755149278</v>
+        <v>1.013438102193143</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035909223795038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035701069303126</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021573870974011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9911922681953113</v>
+        <v>0.9915581550633085</v>
       </c>
       <c r="D21">
-        <v>1.018409005240315</v>
+        <v>1.018390387409076</v>
       </c>
       <c r="E21">
-        <v>1.010352643390725</v>
+        <v>1.010633138745947</v>
       </c>
       <c r="F21">
-        <v>1.02135417827107</v>
+        <v>1.02150380912156</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044969171255408</v>
+        <v>1.044988696758081</v>
       </c>
       <c r="J21">
-        <v>1.021062909165498</v>
+        <v>1.021413116163952</v>
       </c>
       <c r="K21">
-        <v>1.033049809600926</v>
+        <v>1.033031528114359</v>
       </c>
       <c r="L21">
-        <v>1.025140500792259</v>
+        <v>1.025415824921911</v>
       </c>
       <c r="M21">
-        <v>1.035941976503777</v>
+        <v>1.036088924952121</v>
       </c>
       <c r="N21">
-        <v>1.010821476018792</v>
+        <v>1.013326590859447</v>
       </c>
       <c r="Q21">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034521368956955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034525275777995</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021234051739605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9883560711617211</v>
+        <v>0.988915398540118</v>
       </c>
       <c r="D22">
-        <v>1.016526619993859</v>
+        <v>1.016703891650464</v>
       </c>
       <c r="E22">
-        <v>1.008149006005221</v>
+        <v>1.008604483190825</v>
       </c>
       <c r="F22">
-        <v>1.019080392668779</v>
+        <v>1.019414621608031</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04441306758736</v>
+        <v>1.044521382793012</v>
       </c>
       <c r="J22">
-        <v>1.019615973906704</v>
+        <v>1.020149935038802</v>
       </c>
       <c r="K22">
-        <v>1.031777640100032</v>
+        <v>1.031951548441165</v>
       </c>
       <c r="L22">
-        <v>1.023560739767367</v>
+        <v>1.024007389265616</v>
       </c>
       <c r="M22">
-        <v>1.03428310852852</v>
+        <v>1.034611038972347</v>
       </c>
       <c r="N22">
-        <v>1.010329589458292</v>
+        <v>1.01324270154376</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033608377759229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033746875215983</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021010713605115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9898557354160185</v>
+        <v>0.9903003952993396</v>
       </c>
       <c r="D23">
-        <v>1.0175160864436</v>
+        <v>1.017580463486803</v>
       </c>
       <c r="E23">
-        <v>1.009311809452002</v>
+        <v>1.009663833397344</v>
       </c>
       <c r="F23">
-        <v>1.020279555414199</v>
+        <v>1.020505777862959</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044704316746597</v>
+        <v>1.044761202659699</v>
       </c>
       <c r="J23">
-        <v>1.020377113122553</v>
+        <v>1.020802198721664</v>
       </c>
       <c r="K23">
-        <v>1.032443386291063</v>
+        <v>1.032506572963257</v>
       </c>
       <c r="L23">
-        <v>1.024392435562475</v>
+        <v>1.024737813825648</v>
       </c>
       <c r="M23">
-        <v>1.035155933104739</v>
+        <v>1.035378002882341</v>
       </c>
       <c r="N23">
-        <v>1.010587538560157</v>
+        <v>1.013242381864806</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034069448561416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034128718435722</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021123763535835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9956672279657356</v>
+        <v>0.9957281289761656</v>
       </c>
       <c r="D24">
-        <v>1.02137021640639</v>
+        <v>1.021043272051028</v>
       </c>
       <c r="E24">
-        <v>1.013836657417293</v>
+        <v>1.013841509691626</v>
       </c>
       <c r="F24">
-        <v>1.024945407051059</v>
+        <v>1.024804806592419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045820961467515</v>
+        <v>1.045701078607551</v>
       </c>
       <c r="J24">
-        <v>1.023333090614613</v>
+        <v>1.023391618560956</v>
       </c>
       <c r="K24">
-        <v>1.035032160143602</v>
+        <v>1.034710654273635</v>
       </c>
       <c r="L24">
-        <v>1.027625066168949</v>
+        <v>1.027629836208018</v>
       </c>
       <c r="M24">
-        <v>1.038548171340116</v>
+        <v>1.038409888178844</v>
       </c>
       <c r="N24">
-        <v>1.01159054444883</v>
+        <v>1.013438662686263</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035892333516788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035678848138102</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021574386885224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002202281584779</v>
+        <v>1.001997052334851</v>
       </c>
       <c r="D25">
-        <v>1.025724560622822</v>
+        <v>1.025077881399933</v>
       </c>
       <c r="E25">
-        <v>1.018955917509919</v>
+        <v>1.018714751179778</v>
       </c>
       <c r="F25">
-        <v>1.030220628577291</v>
+        <v>1.029803679953935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047038443345627</v>
+        <v>1.046777454174886</v>
       </c>
       <c r="J25">
-        <v>1.026655756795875</v>
+        <v>1.02645739411046</v>
       </c>
       <c r="K25">
-        <v>1.037936242125305</v>
+        <v>1.037298980675599</v>
       </c>
       <c r="L25">
-        <v>1.031266925176937</v>
+        <v>1.031029328776481</v>
       </c>
       <c r="M25">
-        <v>1.042367246607288</v>
+        <v>1.041956301451089</v>
       </c>
       <c r="N25">
-        <v>1.012717602347126</v>
+        <v>1.014217776508245</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03794280552284</v>
+        <v>1.037505754789564</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.0221044182437</v>
       </c>
     </row>
   </sheetData>
